--- a/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1.xlsx
@@ -551,18 +551,14 @@
           <t>19585</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>43063</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Negative screening</t>
+          <t>No screening recorded</t>
         </is>
       </c>
       <c r="H4" t="b">
@@ -596,7 +592,7 @@
         </is>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>last_encounter</t>
+          <t>numerator</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>numerator</t>
+          <t>numerator_desc</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>numerator_desc</t>
+          <t>follow_up</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -492,14 +492,16 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>No screening recorded</t>
         </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -522,14 +524,16 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
+      <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>No screening recorded</t>
         </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -552,17 +556,19 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="b">
+      <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>No screening recorded</t>
         </is>
       </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -582,17 +588,19 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
+      <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>No screening recorded</t>
         </is>
       </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
